--- a/data-4-analysis/data-meta-info.xlsx
+++ b/data-4-analysis/data-meta-info.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jianyingli/myGit/CTN-0031/csv/data-4-analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li11/myGit/CTN-0031/data-4-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="2720" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="5640" yWindow="2300" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gender-completion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PatientID</t>
   </si>
@@ -51,16 +55,47 @@
   </si>
   <si>
     <t>Age (&lt;18, 18-50, &gt;50)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>non-completion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +118,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +449,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>